--- a/DbLayouts/L2-業務作業/ClEva.xlsx
+++ b/DbLayouts/L2-業務作業/ClEva.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD049963-51D4-4F37-95F2-6A82B9D3E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -359,11 +358,15 @@
     <t>必須輸入</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND  EvaNo &lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -595,23 +598,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{E374CB78-43CC-404F-9C56-15F5187A64A7}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,23 +705,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -754,23 +740,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -946,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -965,10 +934,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
@@ -980,8 +949,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="12" t="s">
         <v>65</v>
       </c>
@@ -993,10 +962,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1008,10 +977,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="15" t="s">
         <v>52</v>
       </c>
@@ -1023,10 +992,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="15" t="s">
         <v>50</v>
       </c>
@@ -1036,10 +1005,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1047,10 +1016,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1203,22 +1172,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>16</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>2</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -1226,30 +1195,30 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>8</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="20">
         <v>16</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <v>2</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -1268,7 +1237,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1287,7 +1256,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1306,7 +1275,7 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="21">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -1327,7 +1296,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -1346,7 +1315,7 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -1363,7 +1332,7 @@
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="21">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -1382,7 +1351,7 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="21">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -1399,7 +1368,7 @@
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -1893,12 +1862,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1925,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>

--- a/DbLayouts/L2-業務作業/ClEva.xlsx
+++ b/DbLayouts/L2-業務作業/ClEva.xlsx
@@ -359,7 +359,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND  EvaNo &lt;&gt;</t>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
